--- a/Hasil.xlsx
+++ b/Hasil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Daffa M Azhar\Kuliah\S2\Semester 1\4. KBJ B\Paper\paper-kbj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA79447F-380C-44DE-B07D-A3E7FB19DB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603640FC-1593-4FDB-A49C-D2B25A3D603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6B9C89F-335C-4C71-BBF2-B1B7BF8D45A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6B9C89F-335C-4C71-BBF2-B1B7BF8D45A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>no</t>
   </si>
@@ -74,9 +74,6 @@
     <t>99.96</t>
   </si>
   <si>
-    <t>99.98</t>
-  </si>
-  <si>
     <t>putra et al.</t>
   </si>
   <si>
@@ -92,87 +89,21 @@
     <t>macro</t>
   </si>
   <si>
-    <t>99.75</t>
-  </si>
-  <si>
-    <t>99.63</t>
-  </si>
-  <si>
     <t>99.69</t>
   </si>
   <si>
-    <t>95.03</t>
-  </si>
-  <si>
     <t>96.08</t>
   </si>
   <si>
-    <t>95.55</t>
-  </si>
-  <si>
-    <t>88.82</t>
-  </si>
-  <si>
-    <t>92.25</t>
-  </si>
-  <si>
-    <t>90.63</t>
-  </si>
-  <si>
-    <t>99.32</t>
-  </si>
-  <si>
-    <t>94.54</t>
-  </si>
-  <si>
-    <t>95.29</t>
-  </si>
-  <si>
-    <t>99.33</t>
-  </si>
-  <si>
     <t>only numerical feature</t>
   </si>
   <si>
-    <t>99.60</t>
-  </si>
-  <si>
-    <t>99.67</t>
-  </si>
-  <si>
-    <t>95.74</t>
-  </si>
-  <si>
     <t>95.17</t>
   </si>
   <si>
     <t>86.21</t>
   </si>
   <si>
-    <t>89.25</t>
-  </si>
-  <si>
-    <t>99.26</t>
-  </si>
-  <si>
-    <t>93.52</t>
-  </si>
-  <si>
-    <t>95.95</t>
-  </si>
-  <si>
-    <t>94.70</t>
-  </si>
-  <si>
-    <t>94.60</t>
-  </si>
-  <si>
-    <t>99.28</t>
-  </si>
-  <si>
-    <t>99.27</t>
-  </si>
-  <si>
     <t>98.15</t>
   </si>
   <si>
@@ -207,6 +138,147 @@
   </si>
   <si>
     <t>97.12</t>
+  </si>
+  <si>
+    <t>99.65</t>
+  </si>
+  <si>
+    <t>99.82</t>
+  </si>
+  <si>
+    <t>95.67</t>
+  </si>
+  <si>
+    <t>99.94</t>
+  </si>
+  <si>
+    <t>97.76</t>
+  </si>
+  <si>
+    <t>99.86</t>
+  </si>
+  <si>
+    <t>99.91</t>
+  </si>
+  <si>
+    <t>99.68</t>
+  </si>
+  <si>
+    <t>98.51</t>
+  </si>
+  <si>
+    <t>99.85</t>
+  </si>
+  <si>
+    <t>99.16</t>
+  </si>
+  <si>
+    <t>99.77</t>
+  </si>
+  <si>
+    <t>94.32</t>
+  </si>
+  <si>
+    <t>96.97</t>
+  </si>
+  <si>
+    <t>58.09</t>
+  </si>
+  <si>
+    <t>72.40</t>
+  </si>
+  <si>
+    <t>50.99</t>
+  </si>
+  <si>
+    <t>92.50</t>
+  </si>
+  <si>
+    <t>65.74</t>
+  </si>
+  <si>
+    <t>94.43</t>
+  </si>
+  <si>
+    <t>69.61</t>
+  </si>
+  <si>
+    <t>94.30</t>
+  </si>
+  <si>
+    <t>78.37</t>
+  </si>
+  <si>
+    <t>96.57</t>
+  </si>
+  <si>
+    <t>95.07</t>
+  </si>
+  <si>
+    <t>99.84</t>
+  </si>
+  <si>
+    <t>96.09</t>
+  </si>
+  <si>
+    <t>99.95</t>
+  </si>
+  <si>
+    <t>97.98</t>
+  </si>
+  <si>
+    <t>99.87</t>
+  </si>
+  <si>
+    <t>99.92</t>
+  </si>
+  <si>
+    <t>99.71</t>
+  </si>
+  <si>
+    <t>98.65</t>
+  </si>
+  <si>
+    <t>99.25</t>
+  </si>
+  <si>
+    <t>99.72</t>
+  </si>
+  <si>
+    <t>99.70</t>
+  </si>
+  <si>
+    <t>98.12</t>
+  </si>
+  <si>
+    <t>98.90</t>
+  </si>
+  <si>
+    <t>82.38</t>
+  </si>
+  <si>
+    <t>94.89</t>
+  </si>
+  <si>
+    <t>88.20</t>
+  </si>
+  <si>
+    <t>54.67</t>
+  </si>
+  <si>
+    <t>68.73</t>
+  </si>
+  <si>
+    <t>97.86</t>
+  </si>
+  <si>
+    <t>78.92</t>
+  </si>
+  <si>
+    <t>85.28</t>
+  </si>
+  <si>
+    <t>98.23</t>
   </si>
 </sst>
 </file>
@@ -257,19 +329,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -606,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9691E9C-CA18-4148-BCC2-61B9658A188B}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,48 +686,45 @@
     <col min="2" max="2" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -684,325 +750,323 @@
         <v>2</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5">
-        <v>100</v>
-      </c>
-      <c r="J3" s="5">
-        <v>100</v>
-      </c>
-      <c r="K3" s="5">
-        <v>100</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>10</v>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5">
-        <v>100</v>
-      </c>
-      <c r="J4" s="5">
-        <v>100</v>
-      </c>
-      <c r="K4" s="5">
-        <v>100</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>10</v>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>27</v>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="M7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="N7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Hasil.xlsx
+++ b/Hasil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Daffa M Azhar\Kuliah\S2\Semester 1\4. KBJ B\Paper\paper-kbj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603640FC-1593-4FDB-A49C-D2B25A3D603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FDF13-FCBE-4120-8095-F29B7A8C09F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6B9C89F-335C-4C71-BBF2-B1B7BF8D45A7}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6B9C89F-335C-4C71-BBF2-B1B7BF8D45A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>no</t>
   </si>
@@ -62,9 +62,6 @@
     <t>spam botnet</t>
   </si>
   <si>
-    <t>4 freq + 5 label encoding</t>
-  </si>
-  <si>
     <t>acc</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>putra et al.</t>
   </si>
   <si>
-    <t>only 5 label encoding</t>
-  </si>
-  <si>
     <t>only 4 freq encoding</t>
   </si>
   <si>
@@ -89,18 +83,9 @@
     <t>macro</t>
   </si>
   <si>
-    <t>99.69</t>
-  </si>
-  <si>
-    <t>96.08</t>
-  </si>
-  <si>
     <t>only numerical feature</t>
   </si>
   <si>
-    <t>95.17</t>
-  </si>
-  <si>
     <t>86.21</t>
   </si>
   <si>
@@ -143,142 +128,103 @@
     <t>99.65</t>
   </si>
   <si>
-    <t>99.82</t>
-  </si>
-  <si>
-    <t>95.67</t>
-  </si>
-  <si>
-    <t>99.94</t>
-  </si>
-  <si>
-    <t>97.76</t>
-  </si>
-  <si>
-    <t>99.86</t>
-  </si>
-  <si>
-    <t>99.91</t>
-  </si>
-  <si>
-    <t>99.68</t>
-  </si>
-  <si>
-    <t>98.51</t>
-  </si>
-  <si>
-    <t>99.85</t>
-  </si>
-  <si>
-    <t>99.16</t>
-  </si>
-  <si>
     <t>99.77</t>
   </si>
   <si>
-    <t>94.32</t>
-  </si>
-  <si>
-    <t>96.97</t>
-  </si>
-  <si>
-    <t>58.09</t>
-  </si>
-  <si>
-    <t>72.40</t>
-  </si>
-  <si>
-    <t>50.99</t>
-  </si>
-  <si>
-    <t>92.50</t>
-  </si>
-  <si>
-    <t>65.74</t>
-  </si>
-  <si>
-    <t>94.43</t>
-  </si>
-  <si>
-    <t>69.61</t>
-  </si>
-  <si>
-    <t>94.30</t>
-  </si>
-  <si>
-    <t>78.37</t>
-  </si>
-  <si>
-    <t>96.57</t>
-  </si>
-  <si>
-    <t>95.07</t>
-  </si>
-  <si>
-    <t>99.84</t>
-  </si>
-  <si>
-    <t>96.09</t>
-  </si>
-  <si>
-    <t>99.95</t>
-  </si>
-  <si>
-    <t>97.98</t>
-  </si>
-  <si>
-    <t>99.87</t>
-  </si>
-  <si>
     <t>99.92</t>
   </si>
   <si>
-    <t>99.71</t>
-  </si>
-  <si>
-    <t>98.65</t>
-  </si>
-  <si>
-    <t>99.25</t>
-  </si>
-  <si>
-    <t>99.72</t>
-  </si>
-  <si>
-    <t>99.70</t>
-  </si>
-  <si>
-    <t>98.12</t>
-  </si>
-  <si>
-    <t>98.90</t>
-  </si>
-  <si>
-    <t>82.38</t>
-  </si>
-  <si>
-    <t>94.89</t>
-  </si>
-  <si>
-    <t>88.20</t>
-  </si>
-  <si>
-    <t>54.67</t>
-  </si>
-  <si>
-    <t>68.73</t>
-  </si>
-  <si>
-    <t>97.86</t>
-  </si>
-  <si>
-    <t>78.92</t>
-  </si>
-  <si>
-    <t>85.28</t>
-  </si>
-  <si>
-    <t>98.23</t>
+    <t>only 3 label encoding</t>
+  </si>
+  <si>
+    <t>4 freq + 3 label encoding</t>
+  </si>
+  <si>
+    <t>99.29</t>
+  </si>
+  <si>
+    <t>99.42</t>
+  </si>
+  <si>
+    <t>99.36</t>
+  </si>
+  <si>
+    <t>99.98</t>
+  </si>
+  <si>
+    <t>99.76</t>
+  </si>
+  <si>
+    <t>99.78</t>
+  </si>
+  <si>
+    <t>66.83</t>
+  </si>
+  <si>
+    <t>64.87</t>
+  </si>
+  <si>
+    <t>65.84</t>
+  </si>
+  <si>
+    <t>75.01</t>
+  </si>
+  <si>
+    <t>83.19</t>
+  </si>
+  <si>
+    <t>78.89</t>
+  </si>
+  <si>
+    <t>99.18</t>
+  </si>
+  <si>
+    <t>80.50</t>
+  </si>
+  <si>
+    <t>82.57</t>
+  </si>
+  <si>
+    <t>81.46</t>
+  </si>
+  <si>
+    <t>99.17</t>
+  </si>
+  <si>
+    <t>99.62</t>
+  </si>
+  <si>
+    <t>64.95</t>
+  </si>
+  <si>
+    <t>63.15</t>
+  </si>
+  <si>
+    <t>64.04</t>
+  </si>
+  <si>
+    <t>74.81</t>
+  </si>
+  <si>
+    <t>82.99</t>
+  </si>
+  <si>
+    <t>78.68</t>
+  </si>
+  <si>
+    <t>99.13</t>
+  </si>
+  <si>
+    <t>79.79</t>
+  </si>
+  <si>
+    <t>81.92</t>
+  </si>
+  <si>
+    <t>80.76</t>
+  </si>
+  <si>
+    <t>f2 score</t>
   </si>
 </sst>
 </file>
@@ -329,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +285,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -675,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9691E9C-CA18-4148-BCC2-61B9658A188B}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="S1" sqref="S1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,7 +638,7 @@
     <col min="2" max="2" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -709,20 +661,23 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
+      <c r="S1" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
@@ -769,288 +724,304 @@
       <c r="R2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="R7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1069,7 +1040,8 @@
       <c r="R9" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:A2"/>
